--- a/biology/Botanique/Placki/Placki.xlsx
+++ b/biology/Botanique/Placki/Placki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les placki sont un mets polonais de galettes de pommes de terre râpées, mélangées avec des oignons et des herbes, de la farine et des œufs pour le liant, et dorées dans la poêle au lard ou bien à la graisse d'oie. Elles sont servies chaudes, salées ou sucrées.
